--- a/dtpu_configurations/only_integer64/30mhz/graph_utilization.xlsx
+++ b/dtpu_configurations/only_integer64/30mhz/graph_utilization.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E30BFF-EF25-4B99-B152-0C6F678CB7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACD4572-D791-4717-A2E5-C6D3BC1AAEC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizatio" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>3x3</t>
   </si>
@@ -26,39 +26,6 @@
   </si>
   <si>
     <t>5x5</t>
-  </si>
-  <si>
-    <t>6x6</t>
-  </si>
-  <si>
-    <t>7x7</t>
-  </si>
-  <si>
-    <t>8x8</t>
-  </si>
-  <si>
-    <t>10x10</t>
-  </si>
-  <si>
-    <t>12x12</t>
-  </si>
-  <si>
-    <t>14x14</t>
-  </si>
-  <si>
-    <t>16x16</t>
-  </si>
-  <si>
-    <t>18x18</t>
-  </si>
-  <si>
-    <t>20x20</t>
-  </si>
-  <si>
-    <t>22x22</t>
-  </si>
-  <si>
-    <t>24x24</t>
   </si>
   <si>
     <t>LUT</t>
@@ -299,7 +266,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -308,39 +275,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -352,46 +286,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>16.479324340820313</c:v>
+                  <c:v>22.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.434211730957031</c:v>
+                  <c:v>50.75</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>18.12</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>18.77</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>19.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.0093994140625</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>21.81</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>23.94</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>25.92</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>31.55</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>43.2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>57.07</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>71.78</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>89.12</c:v>
+                  <c:v>82.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,7 +334,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -442,39 +343,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -486,46 +354,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.3333334922790527</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3333334922790527</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>5.41</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>5.52</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>5.61</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7126436233520508</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
                   <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>6.26</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>6.61</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>7.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +402,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -576,39 +411,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -620,46 +422,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11.11936092376709</c:v>
+                  <c:v>14.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.668232917785645</c:v>
+                  <c:v>19.86</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>12.57</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.816729545593262</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>15.23</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>16.95</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>22.09</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>33.75</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>40.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>47.99</c:v>
+                  <c:v>24.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,7 +470,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -710,39 +479,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -754,45 +490,12 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>34.285717010498047</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.428569793701172</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>46.43</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>52.14</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>52.14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57.857143402099609</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
                   <c:v>57.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -835,7 +538,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -844,39 +547,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -888,46 +558,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.7272727489471436</c:v>
+                  <c:v>57.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4545454978942871</c:v>
+                  <c:v>72.73</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>9.09</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>13.64</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>19.09</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.454544067382813</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>40.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>82.73</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>100</c:v>
+                  <c:v>95.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,7 +606,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -978,39 +615,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1028,39 +632,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1105,7 +676,7 @@
             <c:strRef>
               <c:f>utilizatio!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1114,39 +685,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1158,46 +696,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.125</c:v>
+                  <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.125</c:v>
+                  <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1638,7 +1143,7 @@
             <c:strRef>
               <c:f>timng!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1647,39 +1152,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1691,46 +1163,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>21.14</c:v>
+                  <c:v>17.670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.68</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.98</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.32</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>7.7435588836669922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,7 +1211,7 @@
             <c:strRef>
               <c:f>timng!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1781,39 +1220,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1825,46 +1231,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.03</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>1.4964806847274303E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,7 +1703,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2339,39 +1712,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2383,46 +1723,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,7 +1769,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2471,39 +1778,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2515,45 +1789,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2594,7 +1835,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2603,39 +1844,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2654,39 +1862,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,7 +1901,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2735,39 +1910,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2786,39 +1928,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +1967,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2867,39 +1976,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2917,39 +1993,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2990,7 +2033,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2999,39 +2042,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3049,39 +2059,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3124,7 +2101,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3133,39 +2110,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3183,39 +2127,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3258,7 +2169,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3267,39 +2178,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3317,39 +2195,6 @@
                   <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
@@ -3392,7 +2237,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3401,39 +2246,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3451,39 +2263,6 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
@@ -3526,7 +2305,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3535,39 +2314,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3579,45 +2325,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1.43</c:v>
                 </c:pt>
               </c:numCache>
@@ -6057,36 +4770,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -6094,25 +4807,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>16.479324340820313</v>
+        <v>22.53</v>
       </c>
       <c r="C2" s="2">
-        <v>5.3333334922790527</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="2">
-        <v>11.11936092376709</v>
+        <v>14.88</v>
       </c>
       <c r="E2" s="2">
-        <v>34.285717010498047</v>
+        <v>57.86</v>
       </c>
       <c r="F2" s="2">
-        <v>2.7272727489471436</v>
+        <v>57.27</v>
       </c>
       <c r="G2" s="2">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>3.125</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6120,25 +4833,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>17.434211730957031</v>
+        <v>50.75</v>
       </c>
       <c r="C3" s="2">
-        <v>5.3333334922790527</v>
+        <v>5.34</v>
       </c>
       <c r="D3" s="2">
-        <v>11.668232917785645</v>
+        <v>19.86</v>
       </c>
       <c r="E3" s="2">
-        <v>46.428569793701172</v>
+        <v>57.86</v>
       </c>
       <c r="F3" s="2">
-        <v>5.4545454978942871</v>
+        <v>72.73</v>
       </c>
       <c r="G3" s="2">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>3.125</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6146,19 +4859,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.12</v>
+        <v>82.06</v>
       </c>
       <c r="C4">
-        <v>5.41</v>
+        <v>6.08</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>24.88</v>
       </c>
       <c r="E4">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F4">
-        <v>9.09</v>
+        <v>95.45</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -6168,290 +4881,44 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>18.77</v>
-      </c>
-      <c r="C5">
-        <v>5.52</v>
-      </c>
-      <c r="D5">
-        <v>12.57</v>
-      </c>
-      <c r="E5">
-        <v>52.14</v>
-      </c>
-      <c r="F5">
-        <v>13.64</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>3.13</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>19.05</v>
-      </c>
-      <c r="C6">
-        <v>5.61</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>52.14</v>
-      </c>
-      <c r="F6">
-        <v>19.09</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>3.13</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>20.0093994140625</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5.7126436233520508</v>
-      </c>
-      <c r="D7" s="2">
-        <v>13.816729545593262</v>
-      </c>
-      <c r="E7" s="2">
-        <v>57.857143402099609</v>
-      </c>
-      <c r="F7" s="2">
-        <v>25.454544067382813</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3.125</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>21.81</v>
-      </c>
-      <c r="C8">
-        <v>5.9</v>
-      </c>
-      <c r="D8">
-        <v>15.23</v>
-      </c>
-      <c r="E8">
-        <v>57.86</v>
-      </c>
-      <c r="F8">
-        <v>40.909999999999997</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>3.13</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>23.94</v>
-      </c>
-      <c r="C9">
-        <v>6.08</v>
-      </c>
-      <c r="D9">
-        <v>16.95</v>
-      </c>
-      <c r="E9">
-        <v>57.86</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>3.13</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>25.92</v>
-      </c>
-      <c r="C10">
-        <v>6.26</v>
-      </c>
-      <c r="D10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E10">
-        <v>57.86</v>
-      </c>
-      <c r="F10">
-        <v>82.73</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>3.13</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>31.55</v>
-      </c>
-      <c r="C11">
-        <v>6.45</v>
-      </c>
-      <c r="D11">
-        <v>22.09</v>
-      </c>
-      <c r="E11">
-        <v>57.86</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>3.13</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>43.2</v>
-      </c>
-      <c r="C12">
-        <v>6.61</v>
-      </c>
-      <c r="D12">
-        <v>27.6</v>
-      </c>
-      <c r="E12">
-        <v>57.86</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>3.13</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>57.07</v>
-      </c>
-      <c r="C13">
-        <v>6.82</v>
-      </c>
-      <c r="D13">
-        <v>33.75</v>
-      </c>
-      <c r="E13">
-        <v>57.86</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>3.13</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>71.78</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E14">
-        <v>57.86</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>6.25</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>89.12</v>
-      </c>
-      <c r="C15">
-        <v>7.18</v>
-      </c>
-      <c r="D15">
-        <v>47.99</v>
-      </c>
-      <c r="E15">
-        <v>57.86</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>6.25</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -6471,17 +4938,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6489,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="C2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6500,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.14</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C3">
         <v>0.02</v>
@@ -6510,133 +4977,45 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>21.15</v>
-      </c>
-      <c r="C4">
-        <v>0.02</v>
+      <c r="B4" s="2">
+        <v>7.7435588836669922</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.4964806847274303E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>15.34</v>
-      </c>
-      <c r="C6">
-        <v>0.03</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>14.68</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>11.91</v>
-      </c>
-      <c r="C8">
-        <v>0.02</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10.98</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>10.53</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>5.37</v>
-      </c>
-      <c r="C11">
-        <v>0.02</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3.16</v>
-      </c>
-      <c r="C12">
-        <v>0.02</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="C13">
-        <v>0.02</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>7.32</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C15">
-        <v>0.03</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6648,42 +5027,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6691,10 +5070,10 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.02</v>
+      </c>
+      <c r="C2">
         <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6718,7 +5097,7 @@
         <v>0.13</v>
       </c>
       <c r="K2">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6726,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C3">
         <v>0.01</v>
@@ -6753,7 +5132,7 @@
         <v>0.13</v>
       </c>
       <c r="K3">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6761,7 +5140,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C4">
         <v>0.01</v>
@@ -6788,393 +5167,51 @@
         <v>0.13</v>
       </c>
       <c r="K4">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.41</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.01</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.41</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.41</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.01</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.41</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.01</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
-        <v>1.42</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.02</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.42</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.02</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.42</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.02</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.42</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.02</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>0.01</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.43</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.02</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14">
-        <v>0.01</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.44</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1.26</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1.43</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dtpu_configurations/only_integer64/30mhz/graph_utilization.xlsx
+++ b/dtpu_configurations/only_integer64/30mhz/graph_utilization.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACD4572-D791-4717-A2E5-C6D3BC1AAEC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3B18F-89D7-4378-8D1C-94D7E8BD3CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizatio" sheetId="1" r:id="rId1"/>
     <sheet name="timng" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>3x3</t>
   </si>
@@ -49,9 +59,6 @@
     <t>BUFG</t>
   </si>
   <si>
-    <t>MXU size/Utilization</t>
-  </si>
-  <si>
     <t>WNS</t>
   </si>
   <si>
@@ -78,12 +85,19 @@
   <si>
     <t>Total Power</t>
   </si>
+  <si>
+    <t>PL dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +113,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,10 +149,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -140,9 +162,19 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -171,136 +203,99 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Post</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Implementation Utilization Only Integer 8</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$B$1</c:f>
+              <c:f>utilizatio!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LUT</c:v>
+                  <c:v>3x3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$B$2:$B$15</c:f>
+              <c:f>utilizatio!$B$2:$H$2</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22.53</c:v>
+                  <c:v>0.2253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.75</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>82.06</c:v>
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000000-40BE-4C3B-BF97-55B0D00DB037}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -309,66 +304,87 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$C$1</c:f>
+              <c:f>utilizatio!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LUTRAM</c:v>
+                  <c:v>4x4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$C$2:$C$15</c:f>
+              <c:f>utilizatio!$B$3:$H$3</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.34</c:v>
+                  <c:v>0.50749999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.34</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>6.08</c:v>
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72729999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000001-40BE-4C3B-BF97-55B0D00DB037}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -377,340 +393,87 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilizatio!$D$1</c:f>
+              <c:f>utilizatio!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FF</c:v>
+                  <c:v>5x5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>LUT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4x4</c:v>
+                  <c:v>LUTRAM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5x5</c:v>
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilizatio!$D$2:$D$15</c:f>
+              <c:f>utilizatio!$B$4:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.88</c:v>
+                  <c:v>0.8206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.86</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>24.88</c:v>
+                  <c:v>6.08E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-52FA-4190-AA51-015FD3EB2796}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>utilizatio!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>utilizatio!$E$2:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-52FA-4190-AA51-015FD3EB2796}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>utilizatio!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>utilizatio!$F$2:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>57.27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72.73</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>95.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-52FA-4190-AA51-015FD3EB2796}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>utilizatio!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I/O</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>utilizatio!$G$2:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-52FA-4190-AA51-015FD3EB2796}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>utilizatio!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BUFG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>utilizatio!$H$2:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-52FA-4190-AA51-015FD3EB2796}"/>
+              <c16:uniqueId val="{00000002-40BE-4C3B-BF97-55B0D00DB037}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -722,86 +485,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="522638264"/>
-        <c:axId val="324305832"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="474305424"/>
+        <c:axId val="474300504"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="522638264"/>
+        <c:axId val="474305424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mxu Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -839,7 +534,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324305832"/>
+        <c:crossAx val="474300504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -847,7 +542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324305832"/>
+        <c:axId val="474300504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,62 +562,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Utilization</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -953,7 +593,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522638264"/>
+        <c:crossAx val="474305424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1016,7 +656,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr anchor="t" anchorCtr="0"/>
+    <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -1030,7 +670,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1554,1087 +1193,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Post</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Implementation Power</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clocks</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$B$2:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$C$2:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Logic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$D$2:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$E$2:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$F$2:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I/O</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$G$2:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>XADC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$H$2:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PS7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$I$2:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PL Static</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$J$2:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$K$2:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="516830832"/>
-        <c:axId val="516831488"/>
-        <c:axId val="596653888"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="516830832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Mxu size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="516831488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="516831488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="516830832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="596653888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="516831488"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2715,48 +1273,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2864,11 +1382,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2879,11 +1392,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2915,9 +1423,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3787,521 +2292,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15F657A-6E36-4A78-B524-26DE3B789BE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBAE408-A89F-42BD-BBC3-9CB0C992231A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4323,49 +2334,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.02225</cdr:x>
-      <cdr:y>0.09181</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.09179</cdr:x>
-      <cdr:y>0.15136</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="CasellaDiTesto 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0869A4B4-3EB4-4E6B-AB79-B81404B2F604}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="121920" y="281940"/>
-          <a:ext cx="381000" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="it-IT" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4386,47 +2354,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D3072F-1991-40BF-9A7D-09D55C730CA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6305B820-DE22-4081-B725-F770B35ADD09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4770,16 +2697,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -4806,78 +2730,78 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>22.53</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="D2" s="2">
-        <v>14.88</v>
-      </c>
-      <c r="E2" s="2">
-        <v>57.86</v>
-      </c>
-      <c r="F2" s="2">
-        <v>57.27</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3.13</v>
+      <c r="B2" s="4">
+        <v>0.2253</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5786</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.57269999999999999</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>50.75</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="D3" s="2">
-        <v>19.86</v>
-      </c>
-      <c r="E3" s="2">
-        <v>57.86</v>
-      </c>
-      <c r="F3" s="2">
-        <v>72.73</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3.13</v>
+      <c r="B3" s="4">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.1986</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.5786</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>82.06</v>
-      </c>
-      <c r="C4">
-        <v>6.08</v>
-      </c>
-      <c r="D4">
-        <v>24.88</v>
-      </c>
-      <c r="E4">
-        <v>57.86</v>
-      </c>
-      <c r="F4">
-        <v>95.45</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>3.13</v>
+      <c r="B4" s="5">
+        <v>0.8206</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.08E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.5786</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.94450000000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4945,10 +2869,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5025,23 +2949,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -5053,154 +2982,337 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.02</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="6">
+        <v>1.5991535037755966E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8.2857748493552208E-3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5.6551434099674225E-3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3.3944901078939438E-3</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.4954119920730591E-2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1.065471675246954E-3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.12742957472801208</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1.434941291809082</v>
+      </c>
+      <c r="L2" s="7">
+        <f>K2-J2-I2</f>
+        <v>4.9938470125198364E-2</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="O2" s="8">
+        <f>B2/L2</f>
+        <v>0.32022476855346887</v>
+      </c>
+      <c r="P2" s="8">
+        <f>C2/L2</f>
+        <v>0.16591967732656504</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>D2/L2</f>
+        <v>0.11324222379639748</v>
+      </c>
+      <c r="R2" s="8">
+        <f>E2/L2</f>
+        <v>6.7973450115387579E-2</v>
+      </c>
+      <c r="S2" s="8">
+        <f>F2/L2</f>
+        <v>0.29945090194472973</v>
+      </c>
+      <c r="T2" s="8">
+        <f>G2/L2</f>
+        <v>2.1335689150583922E-2</v>
+      </c>
+      <c r="U2" s="8">
+        <f>H2/L2</f>
+        <v>1.1772063976249317E-2</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X2" s="5">
+        <f>I2/K2</f>
+        <v>0.8763935180723692</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>J2/K2</f>
+        <v>8.8804730517829791E-2</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>L2/K2</f>
+        <v>3.4801751409800984E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.02</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
+        <v>2.2682391107082367E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.9573340266942978E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5.7290457189083099E-3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.8983103111386299E-3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.892516203224659E-2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>8.0164585961028934E-4</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.12752468883991241</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.4466837644577026</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L4" si="0">K3-J3-I3</f>
+        <v>6.158582866191864E-2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
+        <f t="shared" ref="O3:O4" si="1">B3/L3</f>
+        <v>0.36830536504752653</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" ref="P3:P4" si="2">C3/L3</f>
+        <v>0.16168222857495423</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q4" si="3">D3/L3</f>
+        <v>9.302538982398792E-2</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" ref="R3:R4" si="4">E3/L3</f>
+        <v>4.7061318717479379E-2</v>
+      </c>
+      <c r="S3" s="8">
+        <f t="shared" ref="S3:S4" si="5">F3/L3</f>
+        <v>0.30729735141079445</v>
+      </c>
+      <c r="T3" s="8">
+        <f t="shared" ref="T3:T4" si="6">G3/L3</f>
+        <v>1.3016726039540715E-2</v>
+      </c>
+      <c r="U3" s="8">
+        <f t="shared" ref="U3:U4" si="7">H3/L3</f>
+        <v>9.5456840958829704E-3</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" ref="X3:X4" si="8">I3/K3</f>
+        <v>0.86927998907023041</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" ref="Y3:Y4" si="9">J3/K3</f>
+        <v>8.8149664752556159E-2</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:Z4" si="10">L3/K3</f>
+        <v>4.2570346177213392E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.03</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>2.8005253523588181E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.2086705304682255E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6.5453113056719303E-3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.6423386298120022E-3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.4834850803017616E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5.3942203521728516E-4</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.12763646245002747</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1.4604554176330566</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" si="0"/>
+        <v>7.5245708227157593E-2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.37218406449233948</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.16062982978635765</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="3"/>
+        <v>8.6985842247805492E-2</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" si="4"/>
+        <v>3.5116137412583119E-2</v>
+      </c>
+      <c r="S4" s="8">
+        <f t="shared" si="5"/>
+        <v>0.3300500638261552</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" si="6"/>
+        <v>7.1688080014987166E-3</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" si="7"/>
+        <v>7.8127893143767873E-3</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86108294150738685</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7394973450738003E-2</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="10"/>
+        <v>5.1522085041875124E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5216,6 +3328,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>